--- a/biology/Botanique/Jardin_des_Colonnes_-_Ricardo-Bofill/Jardin_des_Colonnes_-_Ricardo-Bofill.xlsx
+++ b/biology/Botanique/Jardin_des_Colonnes_-_Ricardo-Bofill/Jardin_des_Colonnes_-_Ricardo-Bofill.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin des Colonnes - Ricardo-Bofill est un espace vert du 14e arrondissement de Paris, dans le quartier de Plaisance.
@@ -512,9 +524,11 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin est accessible par le 5, place de l'Abbé-Jean-Lebeuf[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin est accessible par le 5, place de l'Abbé-Jean-Lebeuf.
 Il est desservi par la ligne 13 à la station Pernety.
 </t>
         </is>
@@ -544,10 +558,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est créé en 1986 sous le nom jardin des Colonnes.
-Le 13 octobre 2022, le nom de l'architecte catalan Ricardo Bofill (1939-2022) est ajouté au nom de l'espace vert[2].
+Le 13 octobre 2022, le nom de l'architecte catalan Ricardo Bofill (1939-2022) est ajouté au nom de l'espace vert.
 </t>
         </is>
       </c>
